--- a/Data/Hate-Crime-Appendices.xlsx
+++ b/Data/Hate-Crime-Appendices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\icnas1.cc.ic.ac.uk\hk2715\GitHub\parliament_data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58566AC9-F4B7-451D-874A-B741CA987957}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3EC928-A66D-4F7C-8FF5-C1F1035D0C4D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="4035" windowWidth="14400" windowHeight="10875" tabRatio="654" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="14400" windowHeight="10875" tabRatio="654" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Police Force Offences Dashboard" sheetId="11" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="216">
   <si>
     <t>2011/12</t>
   </si>
@@ -1521,6 +1521,9 @@
   <si>
     <t>a) Islamophobic offences and rates should be viewied with caution as a large proportion of victims of Islamophobia are not actually Muslim or their religion was 'unknown'</t>
   </si>
+  <si>
+    <t>df</t>
+  </si>
 </sst>
 </file>
 
@@ -2574,7 +2577,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2661,6 +2664,9 @@
         <v>68</v>
       </c>
       <c r="L5" s="18"/>
+      <c r="M5" s="18" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="6" spans="1:19" ht="17.45" customHeight="1">
       <c r="A6" s="12"/>
